--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Timp3-Kdr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Timp3-Kdr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Timp3</t>
+  </si>
+  <si>
+    <t>Kdr</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Timp3</t>
-  </si>
-  <si>
-    <t>Kdr</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>150.258513</v>
+        <v>125.60613</v>
       </c>
       <c r="H2">
-        <v>450.775539</v>
+        <v>376.81839</v>
       </c>
       <c r="I2">
-        <v>0.5395416880146598</v>
+        <v>0.5776575759508482</v>
       </c>
       <c r="J2">
-        <v>0.5395416880146598</v>
+        <v>0.5776575759508483</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>161.7750676666667</v>
+        <v>181.3526613333333</v>
       </c>
       <c r="N2">
-        <v>485.325203</v>
+        <v>544.057984</v>
       </c>
       <c r="O2">
-        <v>0.9790864123038654</v>
+        <v>0.9845849379007657</v>
       </c>
       <c r="P2">
-        <v>0.9790864123038654</v>
+        <v>0.984584937900766</v>
       </c>
       <c r="Q2">
-        <v>24308.08110806771</v>
+        <v>22779.00595528064</v>
       </c>
       <c r="R2">
-        <v>218772.7299726094</v>
+        <v>205011.0535975258</v>
       </c>
       <c r="S2">
-        <v>0.5282579356066448</v>
+        <v>0.5687529485454728</v>
       </c>
       <c r="T2">
-        <v>0.5282579356066448</v>
+        <v>0.568752948545473</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>150.258513</v>
+        <v>125.60613</v>
       </c>
       <c r="H3">
-        <v>450.775539</v>
+        <v>376.81839</v>
       </c>
       <c r="I3">
-        <v>0.5395416880146598</v>
+        <v>0.5776575759508482</v>
       </c>
       <c r="J3">
-        <v>0.5395416880146598</v>
+        <v>0.5776575759508483</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>2.03682</v>
       </c>
       <c r="O3">
-        <v>0.004109044356199978</v>
+        <v>0.003686045149950483</v>
       </c>
       <c r="P3">
-        <v>0.004109044356199979</v>
+        <v>0.003686045149950484</v>
       </c>
       <c r="Q3">
-        <v>102.01651481622</v>
+        <v>85.2790259022</v>
       </c>
       <c r="R3">
-        <v>918.14863334598</v>
+        <v>767.5112331198001</v>
       </c>
       <c r="S3">
-        <v>0.002217000728071248</v>
+        <v>0.002129271906165777</v>
       </c>
       <c r="T3">
-        <v>0.002217000728071248</v>
+        <v>0.002129271906165778</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>150.258513</v>
+        <v>125.60613</v>
       </c>
       <c r="H4">
-        <v>450.775539</v>
+        <v>376.81839</v>
       </c>
       <c r="I4">
-        <v>0.5395416880146598</v>
+        <v>0.5776575759508482</v>
       </c>
       <c r="J4">
-        <v>0.5395416880146598</v>
+        <v>0.5776575759508483</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.013424</v>
+        <v>0.6398506666666667</v>
       </c>
       <c r="N4">
-        <v>3.040271999999999</v>
+        <v>1.919552</v>
       </c>
       <c r="O4">
-        <v>0.006133390531766587</v>
+        <v>0.003473824559694892</v>
       </c>
       <c r="P4">
-        <v>0.006133390531766587</v>
+        <v>0.003473824559694892</v>
       </c>
       <c r="Q4">
-        <v>152.275583278512</v>
+        <v>80.36916601792001</v>
       </c>
       <c r="R4">
-        <v>1370.480249506608</v>
+        <v>723.32249416128</v>
       </c>
       <c r="S4">
-        <v>0.003309219880762477</v>
+        <v>0.002006681074431874</v>
       </c>
       <c r="T4">
-        <v>0.003309219880762477</v>
+        <v>0.002006681074431874</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,14 +708,14 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>150.258513</v>
+        <v>125.60613</v>
       </c>
       <c r="H5">
-        <v>450.775539</v>
+        <v>376.81839</v>
       </c>
       <c r="I5">
-        <v>0.5395416880146598</v>
+        <v>0.5776575759508482</v>
       </c>
       <c r="J5">
-        <v>0.5395416880146598</v>
+        <v>0.5776575759508483</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.763201333333333</v>
+        <v>1.520540333333333</v>
       </c>
       <c r="N5">
-        <v>5.289604</v>
+        <v>4.561621</v>
       </c>
       <c r="O5">
-        <v>0.01067115280816804</v>
+        <v>0.008255192389588805</v>
       </c>
       <c r="P5">
-        <v>0.01067115280816804</v>
+        <v>0.008255192389588807</v>
       </c>
       <c r="Q5">
-        <v>264.936010466284</v>
+        <v>190.98918677891</v>
       </c>
       <c r="R5">
-        <v>2384.424094196556</v>
+        <v>1718.90268101019</v>
       </c>
       <c r="S5">
-        <v>0.005757531799181362</v>
+        <v>0.004768674424777759</v>
       </c>
       <c r="T5">
-        <v>0.005757531799181363</v>
+        <v>0.004768674424777761</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -791,10 +791,10 @@
         <v>109.388836</v>
       </c>
       <c r="I6">
-        <v>0.1309295472339256</v>
+        <v>0.1676916294872044</v>
       </c>
       <c r="J6">
-        <v>0.1309295472339256</v>
+        <v>0.1676916294872044</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>161.7750676666667</v>
+        <v>181.3526613333333</v>
       </c>
       <c r="N6">
-        <v>485.325203</v>
+        <v>544.057984</v>
       </c>
       <c r="O6">
-        <v>0.9790864123038654</v>
+        <v>0.9845849379007657</v>
       </c>
       <c r="P6">
-        <v>0.9790864123038654</v>
+        <v>0.984584937900766</v>
       </c>
       <c r="Q6">
-        <v>5898.795448625967</v>
+        <v>6612.652176251847</v>
       </c>
       <c r="R6">
-        <v>53089.1590376337</v>
+        <v>59513.86958626663</v>
       </c>
       <c r="S6">
-        <v>0.1281913406658337</v>
+        <v>0.1651066526051373</v>
       </c>
       <c r="T6">
-        <v>0.1281913406658337</v>
+        <v>0.1651066526051374</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -853,10 +853,10 @@
         <v>109.388836</v>
       </c>
       <c r="I7">
-        <v>0.1309295472339256</v>
+        <v>0.1676916294872044</v>
       </c>
       <c r="J7">
-        <v>0.1309295472339256</v>
+        <v>0.1676916294872044</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>2.03682</v>
       </c>
       <c r="O7">
-        <v>0.004109044356199978</v>
+        <v>0.003686045149950483</v>
       </c>
       <c r="P7">
-        <v>0.004109044356199979</v>
+        <v>0.003686045149950484</v>
       </c>
       <c r="Q7">
         <v>24.75615210461333</v>
@@ -883,10 +883,10 @@
         <v>222.80536894152</v>
       </c>
       <c r="S7">
-        <v>0.0005379953171213807</v>
+        <v>0.0006181189175586031</v>
       </c>
       <c r="T7">
-        <v>0.0005379953171213808</v>
+        <v>0.0006181189175586034</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -915,10 +915,10 @@
         <v>109.388836</v>
       </c>
       <c r="I8">
-        <v>0.1309295472339256</v>
+        <v>0.1676916294872044</v>
       </c>
       <c r="J8">
-        <v>0.1309295472339256</v>
+        <v>0.1676916294872044</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.013424</v>
+        <v>0.6398506666666667</v>
       </c>
       <c r="N8">
-        <v>3.040271999999999</v>
+        <v>1.919552</v>
       </c>
       <c r="O8">
-        <v>0.006133390531766587</v>
+        <v>0.003473824559694892</v>
       </c>
       <c r="P8">
-        <v>0.006133390531766587</v>
+        <v>0.003473824559694892</v>
       </c>
       <c r="Q8">
-        <v>36.95242391148799</v>
+        <v>23.33083988016356</v>
       </c>
       <c r="R8">
-        <v>332.5718152033919</v>
+        <v>209.977558921472</v>
       </c>
       <c r="S8">
-        <v>0.0008030420453330457</v>
+        <v>0.0005825313009679067</v>
       </c>
       <c r="T8">
-        <v>0.0008030420453330457</v>
+        <v>0.0005825313009679068</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,10 +977,10 @@
         <v>109.388836</v>
       </c>
       <c r="I9">
-        <v>0.1309295472339256</v>
+        <v>0.1676916294872044</v>
       </c>
       <c r="J9">
-        <v>0.1309295472339256</v>
+        <v>0.1676916294872044</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.763201333333333</v>
+        <v>1.520540333333333</v>
       </c>
       <c r="N9">
-        <v>5.289604</v>
+        <v>4.561621</v>
       </c>
       <c r="O9">
-        <v>0.01067115280816804</v>
+        <v>0.008255192389588805</v>
       </c>
       <c r="P9">
-        <v>0.01067115280816804</v>
+        <v>0.008255192389588807</v>
       </c>
       <c r="Q9">
-        <v>64.29151382899377</v>
+        <v>55.44337905146177</v>
       </c>
       <c r="R9">
-        <v>578.6236244609439</v>
+        <v>498.990411463156</v>
       </c>
       <c r="S9">
-        <v>0.001397169205637476</v>
+        <v>0.001384326663540515</v>
       </c>
       <c r="T9">
-        <v>0.001397169205637476</v>
+        <v>0.001384326663540516</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>91.53790766666667</v>
+        <v>55.37138633333333</v>
       </c>
       <c r="H10">
-        <v>274.613723</v>
+        <v>166.114159</v>
       </c>
       <c r="I10">
-        <v>0.3286903100112765</v>
+        <v>0.2546507945619474</v>
       </c>
       <c r="J10">
-        <v>0.3286903100112764</v>
+        <v>0.2546507945619474</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>161.7750676666667</v>
+        <v>181.3526613333333</v>
       </c>
       <c r="N10">
-        <v>485.325203</v>
+        <v>544.057984</v>
       </c>
       <c r="O10">
-        <v>0.9790864123038654</v>
+        <v>0.9845849379007657</v>
       </c>
       <c r="P10">
-        <v>0.9790864123038654</v>
+        <v>0.984584937900766</v>
       </c>
       <c r="Q10">
-        <v>14808.55120684009</v>
+        <v>10041.74827326616</v>
       </c>
       <c r="R10">
-        <v>133276.9608615608</v>
+        <v>90375.73445939546</v>
       </c>
       <c r="S10">
-        <v>0.321816216387986</v>
+        <v>0.2507253367501556</v>
       </c>
       <c r="T10">
-        <v>0.3218162163879859</v>
+        <v>0.2507253367501557</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,10 +1080,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>91.53790766666667</v>
+        <v>55.37138633333333</v>
       </c>
       <c r="H11">
-        <v>274.613723</v>
+        <v>166.114159</v>
       </c>
       <c r="I11">
-        <v>0.3286903100112765</v>
+        <v>0.2546507945619474</v>
       </c>
       <c r="J11">
-        <v>0.3286903100112764</v>
+        <v>0.2546507945619474</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>2.03682</v>
       </c>
       <c r="O11">
-        <v>0.004109044356199978</v>
+        <v>0.003686045149950483</v>
       </c>
       <c r="P11">
-        <v>0.004109044356199979</v>
+        <v>0.003686045149950484</v>
       </c>
       <c r="Q11">
-        <v>62.14874703120667</v>
+        <v>37.59384903715333</v>
       </c>
       <c r="R11">
-        <v>559.33872328086</v>
+        <v>338.34464133438</v>
       </c>
       <c r="S11">
-        <v>0.001350603063289457</v>
+        <v>0.000938654326226103</v>
       </c>
       <c r="T11">
-        <v>0.001350603063289457</v>
+        <v>0.0009386543262261035</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,10 +1142,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>91.53790766666667</v>
+        <v>55.37138633333333</v>
       </c>
       <c r="H12">
-        <v>274.613723</v>
+        <v>166.114159</v>
       </c>
       <c r="I12">
-        <v>0.3286903100112765</v>
+        <v>0.2546507945619474</v>
       </c>
       <c r="J12">
-        <v>0.3286903100112764</v>
+        <v>0.2546507945619474</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.013424</v>
+        <v>0.6398506666666667</v>
       </c>
       <c r="N12">
-        <v>3.040271999999999</v>
+        <v>1.919552</v>
       </c>
       <c r="O12">
-        <v>0.006133390531766587</v>
+        <v>0.003473824559694892</v>
       </c>
       <c r="P12">
-        <v>0.006133390531766587</v>
+        <v>0.003473824559694892</v>
       </c>
       <c r="Q12">
-        <v>92.76671253918398</v>
+        <v>35.42941845964089</v>
       </c>
       <c r="R12">
-        <v>834.9004128526558</v>
+        <v>318.864766136768</v>
       </c>
       <c r="S12">
-        <v>0.002015986035306588</v>
+        <v>0.0008846121842951113</v>
       </c>
       <c r="T12">
-        <v>0.002015986035306587</v>
+        <v>0.0008846121842951116</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,14 +1204,14 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
         <v>3</v>
       </c>
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>91.53790766666667</v>
+        <v>55.37138633333333</v>
       </c>
       <c r="H13">
-        <v>274.613723</v>
+        <v>166.114159</v>
       </c>
       <c r="I13">
-        <v>0.3286903100112765</v>
+        <v>0.2546507945619474</v>
       </c>
       <c r="J13">
-        <v>0.3286903100112764</v>
+        <v>0.2546507945619474</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,276 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.763201333333333</v>
+        <v>1.520540333333333</v>
       </c>
       <c r="N13">
-        <v>5.289604</v>
+        <v>4.561621</v>
       </c>
       <c r="O13">
-        <v>0.01067115280816804</v>
+        <v>0.008255192389588805</v>
       </c>
       <c r="P13">
-        <v>0.01067115280816804</v>
+        <v>0.008255192389588807</v>
       </c>
       <c r="Q13">
-        <v>161.3997608484102</v>
+        <v>84.19442623241544</v>
       </c>
       <c r="R13">
-        <v>1452.597847635692</v>
+        <v>757.749836091739</v>
       </c>
       <c r="S13">
-        <v>0.003507504524694457</v>
+        <v>0.00210219130127053</v>
       </c>
       <c r="T13">
-        <v>0.003507504524694457</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G14">
-        <v>0.2335036666666667</v>
-      </c>
-      <c r="H14">
-        <v>0.700511</v>
-      </c>
-      <c r="I14">
-        <v>0.0008384547401380566</v>
-      </c>
-      <c r="J14">
-        <v>0.0008384547401380566</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>161.7750676666667</v>
-      </c>
-      <c r="N14">
-        <v>485.325203</v>
-      </c>
-      <c r="O14">
-        <v>0.9790864123038654</v>
-      </c>
-      <c r="P14">
-        <v>0.9790864123038654</v>
-      </c>
-      <c r="Q14">
-        <v>37.77507147541478</v>
-      </c>
-      <c r="R14">
-        <v>339.975643278733</v>
-      </c>
-      <c r="S14">
-        <v>0.0008209196434009397</v>
-      </c>
-      <c r="T14">
-        <v>0.0008209196434009397</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G15">
-        <v>0.2335036666666667</v>
-      </c>
-      <c r="H15">
-        <v>0.700511</v>
-      </c>
-      <c r="I15">
-        <v>0.0008384547401380566</v>
-      </c>
-      <c r="J15">
-        <v>0.0008384547401380566</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>0.67894</v>
-      </c>
-      <c r="N15">
-        <v>2.03682</v>
-      </c>
-      <c r="O15">
-        <v>0.004109044356199978</v>
-      </c>
-      <c r="P15">
-        <v>0.004109044356199979</v>
-      </c>
-      <c r="Q15">
-        <v>0.1585349794466667</v>
-      </c>
-      <c r="R15">
-        <v>1.42681481502</v>
-      </c>
-      <c r="S15">
-        <v>3.445247717893401E-06</v>
-      </c>
-      <c r="T15">
-        <v>3.445247717893402E-06</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G16">
-        <v>0.2335036666666667</v>
-      </c>
-      <c r="H16">
-        <v>0.700511</v>
-      </c>
-      <c r="I16">
-        <v>0.0008384547401380566</v>
-      </c>
-      <c r="J16">
-        <v>0.0008384547401380566</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>1.013424</v>
-      </c>
-      <c r="N16">
-        <v>3.040271999999999</v>
-      </c>
-      <c r="O16">
-        <v>0.006133390531766587</v>
-      </c>
-      <c r="P16">
-        <v>0.006133390531766587</v>
-      </c>
-      <c r="Q16">
-        <v>0.236638219888</v>
-      </c>
-      <c r="R16">
-        <v>2.129743978991999</v>
-      </c>
-      <c r="S16">
-        <v>5.142570364477571E-06</v>
-      </c>
-      <c r="T16">
-        <v>5.142570364477571E-06</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G17">
-        <v>0.2335036666666667</v>
-      </c>
-      <c r="H17">
-        <v>0.700511</v>
-      </c>
-      <c r="I17">
-        <v>0.0008384547401380566</v>
-      </c>
-      <c r="J17">
-        <v>0.0008384547401380566</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>1.763201333333333</v>
-      </c>
-      <c r="N17">
-        <v>5.289604</v>
-      </c>
-      <c r="O17">
-        <v>0.01067115280816804</v>
-      </c>
-      <c r="P17">
-        <v>0.01067115280816804</v>
-      </c>
-      <c r="Q17">
-        <v>0.4117139764048888</v>
-      </c>
-      <c r="R17">
-        <v>3.705425787644</v>
-      </c>
-      <c r="S17">
-        <v>8.947278654746027E-06</v>
-      </c>
-      <c r="T17">
-        <v>8.947278654746029E-06</v>
+        <v>0.002102191301270531</v>
       </c>
     </row>
   </sheetData>
